--- a/biology/Zoologie/Deliochus_humilis/Deliochus_humilis.xlsx
+++ b/biology/Zoologie/Deliochus_humilis/Deliochus_humilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deliochus humilis est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deliochus humilis est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Australie et en Papouasie-Nouvelle-Guinée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Australie et en Papouasie-Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Kallal et Hormiga en 2018 mesure 3,16 mm et la femelle 5,74 mm, les mâles mesurent de 1,29 à 3,16 mm et les femelles de 5,74 à 7,59 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Kallal et Hormiga en 2018 mesure 3,16 mm et la femelle 5,74 mm, les mâles mesurent de 1,29 à 3,16 mm et les femelles de 5,74 à 7,59 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Theridion humile par Keyserling en L. Koch, 1867. Elle est placée dans le genre Epeira par L. Koch en 1872[3], dans le genre Araneus par Simon en 1895[4] puis dans le genre Deliochus par Kallal et Hormiga en 2018[2].
-Araneus favorabilis[5] a été placée en synonymie par Kallal et Hormiga en 2018[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Theridion humile par Keyserling en L. Koch, 1867. Elle est placée dans le genre Epeira par L. Koch en 1872, dans le genre Araneus par Simon en 1895 puis dans le genre Deliochus par Kallal et Hormiga en 2018.
+Araneus favorabilis a été placée en synonymie par Kallal et Hormiga en 2018.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L. Koch, 1867 : « Beschreibungen neuer Arachniden und Myriapoden. II. » Verhandlungen der Kaiserlich-Königlichen Zoologisch-Botanischen Gesellschaft in Wien, vol. 17, p. 173-250 (texte intégral).</t>
         </is>
